--- a/data/trans_orig/P1802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0048F4D9-6DFD-4B9E-B84A-112ED4FF9538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E68FB3-D54B-4C58-AA99-FD981D467022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66A69D3F-8A32-49AC-960C-DE3F2E4B3E71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60560DB1-2EC3-4886-BA4E-E458823B58AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -198,52 +198,46 @@
     <t>11,17%</t>
   </si>
   <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
     <t>86,39%</t>
   </si>
   <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>87,16%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,49 +246,55 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,55 +303,55 @@
     <t>15,71%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,109 +360,103 @@
     <t>17,43%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -474,181 +468,187 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>14,0%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>86,0%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>18,05%</t>
   </si>
   <si>
     <t>30,79%</t>
@@ -657,19 +657,19 @@
     <t>77,62%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>78,55%</t>
@@ -678,169 +678,169 @@
     <t>69,21%</t>
   </si>
   <si>
-    <t>82,06%</t>
+    <t>81,95%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>25,46%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B84146-3FDC-412A-955D-0A3F2EB2A9CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4870FC31-99F6-4706-8DF1-5DA8B41EF8B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1707,7 +1707,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -1716,13 +1716,13 @@
         <v>193594</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1737,13 @@
         <v>578005</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>565</v>
@@ -1752,13 +1752,13 @@
         <v>558884</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1117</v>
@@ -1767,13 +1767,13 @@
         <v>1136889</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1841,13 @@
         <v>108036</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -1856,13 +1856,13 @@
         <v>105447</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -1871,13 +1871,13 @@
         <v>213483</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1892,13 @@
         <v>538012</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>504</v>
@@ -1907,19 +1907,19 @@
         <v>543630</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>989</v>
       </c>
       <c r="N14" s="7">
-        <v>1081642</v>
+        <v>1081643</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1970,7 +1970,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2169,10 +2169,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -2181,13 +2181,13 @@
         <v>291912</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>488270</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -2217,13 +2217,13 @@
         <v>589077</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1014</v>
@@ -2232,13 +2232,13 @@
         <v>1077347</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>487606</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -2321,13 +2321,13 @@
         <v>669261</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1077</v>
@@ -2336,13 +2336,13 @@
         <v>1156867</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2357,13 @@
         <v>2906744</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2721</v>
@@ -2372,13 +2372,13 @@
         <v>2875281</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5492</v>
@@ -2387,13 +2387,13 @@
         <v>5782025</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C84C5C-039C-4DBA-863D-CCEB1FBADA7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC039263-3DF8-446D-A50D-AD35E8241B13}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2595,13 +2595,13 @@
         <v>28359</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2610,13 +2610,13 @@
         <v>39197</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -2625,13 +2625,13 @@
         <v>67556</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>349320</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -2661,13 +2661,13 @@
         <v>315760</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>341</v>
@@ -2676,13 +2676,13 @@
         <v>665080</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>41105</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2765,13 +2765,13 @@
         <v>52219</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -2780,13 +2780,13 @@
         <v>93324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2801,13 @@
         <v>387291</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -2816,13 +2816,13 @@
         <v>446358</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -2831,13 +2831,13 @@
         <v>833649</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2905,13 @@
         <v>97916</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -2920,13 +2920,13 @@
         <v>85613</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>222</v>
@@ -2935,13 +2935,13 @@
         <v>183529</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2956,13 @@
         <v>459336</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
@@ -2971,13 +2971,13 @@
         <v>497863</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1170</v>
@@ -2986,10 +2986,10 @@
         <v>957198</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>195</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3123,7 +3123,7 @@
         <v>885</v>
       </c>
       <c r="I14" s="7">
-        <v>593086</v>
+        <v>593085</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>208</v>
@@ -3174,7 +3174,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746445</v>
+        <v>746444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E68FB3-D54B-4C58-AA99-FD981D467022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AF03C2-CED2-4CBA-9D68-6C865DB6D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60560DB1-2EC3-4886-BA4E-E458823B58AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A1E9BC0-9025-425A-B373-DE5EE97EF246}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,49 +195,55 @@
     <t>13,61%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>12,85%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>87,15%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,55 +252,49 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>19,42%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>80,58%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,55 +303,55 @@
     <t>15,71%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,103 +360,103 @@
     <t>17,43%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>27,36%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>79,73%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>84,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,9 +804,6 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
     <t>17,26%</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
   </si>
   <si>
     <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
   </si>
   <si>
     <t>84,33%</t>
@@ -1252,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4870FC31-99F6-4706-8DF1-5DA8B41EF8B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE89B45-EB4B-4141-8F72-3081CAB30AB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1707,7 +1701,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -1716,13 +1710,13 @@
         <v>193594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1731,13 @@
         <v>578005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>565</v>
@@ -1752,13 +1746,13 @@
         <v>558884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1117</v>
@@ -1767,13 +1761,13 @@
         <v>1136889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1823,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1835,13 @@
         <v>108036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -1856,13 +1850,13 @@
         <v>105447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -1871,13 +1865,13 @@
         <v>213483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1886,13 @@
         <v>538012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>504</v>
@@ -1907,19 +1901,19 @@
         <v>543630</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>989</v>
       </c>
       <c r="N14" s="7">
-        <v>1081643</v>
+        <v>1081642</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1970,7 +1964,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2169,10 +2163,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -2181,13 +2175,13 @@
         <v>291912</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2196,13 @@
         <v>488270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -2217,13 +2211,13 @@
         <v>589077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1014</v>
@@ -2232,13 +2226,13 @@
         <v>1077347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2300,13 @@
         <v>487606</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -2321,13 +2315,13 @@
         <v>669261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1077</v>
@@ -2336,13 +2330,13 @@
         <v>1156867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2351,13 @@
         <v>2906744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2721</v>
@@ -2372,13 +2366,13 @@
         <v>2875281</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>5492</v>
@@ -2471,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC039263-3DF8-446D-A50D-AD35E8241B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12063264-0EAF-4247-A9CB-E745E5DBB664}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3048,7 +3042,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3546,7 +3540,7 @@
         <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>1642</v>
@@ -3555,13 +3549,13 @@
         <v>1240631</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3570,13 @@
         <v>2812151</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>4279</v>
@@ -3591,13 +3585,13 @@
         <v>3135283</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>7091</v>
@@ -3606,13 +3600,13 @@
         <v>5947434</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E098CF9-9772-4577-9A99-2F7A2BF25341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C3C95D-2DE4-4F90-8AA5-842E6435FF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17BC2C40-7E3D-4692-AF06-49134FAB26ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{29379C3A-3C1C-45F8-91E6-21D339375740}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="388">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>991.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,267 +176,309 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
     <t>16,72%</t>
   </si>
   <si>
@@ -542,58 +584,121 @@
     <t>81,77%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>14,37%</t>
@@ -662,406 +767,442 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1614,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D855DDCF-9C27-47AB-A58B-5A8AFEE6D927}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBDE021-06BD-42F2-A735-AB4C893D9D1F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2621,10 +2762,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2636,31 +2777,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2684,7 +2825,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2699,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2714,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2750,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2765,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2789,10 +2930,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2804,10 +2945,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2821,52 +2962,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2890,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2905,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2920,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +3082,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2956,7 +3097,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2971,7 +3112,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,63 +3121,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3049,8 +3397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1B0D11-160D-48EB-8515-13D8D3F652E6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD66FF9-3CD5-45BE-9171-BA574B3A5AFE}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3066,7 +3414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3176,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3191,7 +3539,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3206,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3230,7 +3578,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3245,7 +3593,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3260,7 +3608,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3629,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3296,7 +3644,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3311,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3451,7 +3799,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3502,7 +3850,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3794,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3809,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3824,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3848,7 +4196,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3863,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3878,7 +4226,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3914,7 +4262,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3929,7 +4277,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4069,7 +4417,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4120,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4197,46 +4545,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4260,7 +4608,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4275,7 +4623,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4290,7 +4638,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4326,7 +4674,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4341,7 +4689,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -4365,10 +4713,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -4380,10 +4728,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4397,52 +4745,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4466,7 +4814,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4481,7 +4829,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4496,7 +4844,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4865,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4532,7 +4880,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4547,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,63 +4904,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4625,8 +5180,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A531D05-B85A-444E-94DC-9D72F35A7203}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4044F15-686C-4C4C-99AD-80AA8523C2B9}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4642,7 +5197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4770,7 +5325,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4800,13 +5355,13 @@
         <v>43011</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4815,13 +5370,13 @@
         <v>57781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>100</v>
@@ -4830,13 +5385,13 @@
         <v>100792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +5406,13 @@
         <v>376452</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>345</v>
@@ -4866,13 +5421,13 @@
         <v>337974</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>697</v>
@@ -4881,13 +5436,13 @@
         <v>714426</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +5516,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4976,7 +5531,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4991,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5561,13 @@
         <v>67347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -5021,13 +5576,13 @@
         <v>85704</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -5036,13 +5591,13 @@
         <v>153051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5612,13 @@
         <v>523149</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>493</v>
@@ -5072,13 +5627,13 @@
         <v>477840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>998</v>
@@ -5087,13 +5642,13 @@
         <v>1000989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5212,13 +5767,13 @@
         <v>91092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -5227,13 +5782,13 @@
         <v>102502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -5242,13 +5797,13 @@
         <v>193594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5818,13 @@
         <v>578005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>565</v>
@@ -5278,13 +5833,13 @@
         <v>558884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>1117</v>
@@ -5293,13 +5848,13 @@
         <v>1136889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5403,7 +5958,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5973,13 @@
         <v>108036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -5433,13 +5988,13 @@
         <v>105447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -5448,13 +6003,13 @@
         <v>213483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +6024,13 @@
         <v>538012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H18" s="7">
         <v>504</v>
@@ -5484,13 +6039,13 @@
         <v>543630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>989</v>
@@ -5499,13 +6054,13 @@
         <v>1081642</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5594,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5609,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +6179,13 @@
         <v>75063</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H21" s="7">
         <v>114</v>
@@ -5639,13 +6194,13 @@
         <v>128973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -5654,13 +6209,13 @@
         <v>204036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +6230,13 @@
         <v>402855</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>319</v>
@@ -5690,13 +6245,13 @@
         <v>367876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>677</v>
@@ -5705,13 +6260,13 @@
         <v>770731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,7 +6340,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5800,7 +6355,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5815,7 +6370,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,49 +6379,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7">
-        <v>103058</v>
+        <v>55754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="I25" s="7">
-        <v>188854</v>
+        <v>93473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="N25" s="7">
-        <v>291912</v>
+        <v>149227</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,49 +6430,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>519</v>
+        <v>271</v>
       </c>
       <c r="D26" s="7">
-        <v>488270</v>
+        <v>278576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
-        <v>495</v>
+        <v>267</v>
       </c>
       <c r="I26" s="7">
-        <v>589077</v>
+        <v>284289</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
-        <v>1014</v>
+        <v>538</v>
       </c>
       <c r="N26" s="7">
-        <v>1077347</v>
+        <v>562865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,10 +6481,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5941,10 +6496,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5956,10 +6511,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5973,7 +6528,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5991,7 +6546,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6006,7 +6561,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6021,7 +6576,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,49 +6585,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>460</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7">
-        <v>487606</v>
+        <v>47304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="I29" s="7">
-        <v>669261</v>
+        <v>95381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
-        <v>1077</v>
+        <v>127</v>
       </c>
       <c r="N29" s="7">
-        <v>1156867</v>
+        <v>142685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,49 +6636,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>2771</v>
+        <v>248</v>
       </c>
       <c r="D30" s="7">
-        <v>2906744</v>
+        <v>209694</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
-        <v>2721</v>
+        <v>228</v>
       </c>
       <c r="I30" s="7">
-        <v>2875281</v>
+        <v>304788</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
-        <v>5492</v>
+        <v>476</v>
       </c>
       <c r="N30" s="7">
-        <v>5782025</v>
+        <v>514482</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,63 +6687,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>460</v>
+      </c>
+      <c r="D33" s="7">
+        <v>487606</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="7">
+        <v>617</v>
+      </c>
+      <c r="I33" s="7">
+        <v>669261</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1077</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1156867</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2771</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2906744</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2721</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2875281</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5492</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5782025</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6201,8 +6963,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326EB2B7-9918-4D67-B1E8-3CAEE137152C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976EC7FB-AF5F-4C76-8451-894460DF5240}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6218,7 +6980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6331,7 +7093,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6346,7 +7108,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6361,7 +7123,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,46 +7135,46 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>28359</v>
+        <v>30585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>39197</v>
+        <v>34987</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>67556</v>
+        <v>65572</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,46 +7186,46 @@
         <v>159</v>
       </c>
       <c r="D6" s="7">
-        <v>349320</v>
+        <v>369402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>182</v>
       </c>
       <c r="I6" s="7">
-        <v>315760</v>
+        <v>278213</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>341</v>
       </c>
       <c r="N6" s="7">
-        <v>665080</v>
+        <v>647615</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,7 +7237,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6490,7 +7252,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6505,7 +7267,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6537,7 +7299,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6552,7 +7314,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6567,7 +7329,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,46 +7341,46 @@
         <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>41105</v>
+        <v>43444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>52219</v>
+        <v>52032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
       </c>
       <c r="N9" s="7">
-        <v>93324</v>
+        <v>95476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,46 +7392,46 @@
         <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>387291</v>
+        <v>380103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>406</v>
       </c>
       <c r="I10" s="7">
-        <v>446358</v>
+        <v>459472</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>679</v>
       </c>
       <c r="N10" s="7">
-        <v>833649</v>
+        <v>839575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,7 +7443,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6696,7 +7458,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6711,7 +7473,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6743,7 +7505,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6758,7 +7520,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6773,7 +7535,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,46 +7547,46 @@
         <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>97916</v>
+        <v>97194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
       </c>
       <c r="I13" s="7">
-        <v>85613</v>
+        <v>82707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>183529</v>
+        <v>179901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,46 +7598,46 @@
         <v>456</v>
       </c>
       <c r="D14" s="7">
-        <v>459336</v>
+        <v>439144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>714</v>
       </c>
       <c r="I14" s="7">
-        <v>497863</v>
+        <v>459761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1170</v>
       </c>
       <c r="N14" s="7">
-        <v>957198</v>
+        <v>898905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +7649,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6902,7 +7664,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6917,7 +7679,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6964,7 +7726,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6979,7 +7741,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,46 +7753,46 @@
         <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>162002</v>
+        <v>352966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
       </c>
       <c r="I17" s="7">
-        <v>153359</v>
+        <v>144950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>368</v>
       </c>
       <c r="N17" s="7">
-        <v>315362</v>
+        <v>497916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,46 +7804,46 @@
         <v>552</v>
       </c>
       <c r="D18" s="7">
-        <v>561988</v>
+        <v>534820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>885</v>
       </c>
       <c r="I18" s="7">
-        <v>593086</v>
+        <v>567183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>1437</v>
       </c>
       <c r="N18" s="7">
-        <v>1155073</v>
+        <v>1102004</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7855,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -7108,7 +7870,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746445</v>
+        <v>712133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -7123,7 +7885,7 @@
         <v>1805</v>
       </c>
       <c r="N19" s="7">
-        <v>1470435</v>
+        <v>1599920</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -7185,7 +7947,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7959,46 @@
         <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>122473</v>
+        <v>117386</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>151640</v>
+        <v>140879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>398</v>
       </c>
       <c r="N21" s="7">
-        <v>274113</v>
+        <v>258265</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,46 +8010,46 @@
         <v>524</v>
       </c>
       <c r="D22" s="7">
-        <v>477684</v>
+        <v>443848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>741</v>
       </c>
       <c r="I22" s="7">
-        <v>443975</v>
+        <v>405689</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>1265</v>
       </c>
       <c r="N22" s="7">
-        <v>921659</v>
+        <v>849537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,7 +8061,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7314,7 +8076,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595615</v>
+        <v>546568</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7329,7 +8091,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195772</v>
+        <v>1107802</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7361,7 +8123,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7376,7 +8138,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7391,7 +8153,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,49 +8162,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>119639</v>
+        <v>69396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
-        <v>355</v>
+        <v>176</v>
       </c>
       <c r="I25" s="7">
-        <v>187108</v>
+        <v>85764</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
-        <v>533</v>
+        <v>281</v>
       </c>
       <c r="N25" s="7">
-        <v>306747</v>
+        <v>155161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,49 +8213,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>848</v>
+        <v>464</v>
       </c>
       <c r="D26" s="7">
-        <v>576534</v>
+        <v>298022</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
-        <v>1351</v>
+        <v>650</v>
       </c>
       <c r="I26" s="7">
-        <v>838241</v>
+        <v>522053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
-        <v>2199</v>
+        <v>1114</v>
       </c>
       <c r="N26" s="7">
-        <v>1414775</v>
+        <v>820075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,10 +8264,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>696173</v>
+        <v>367418</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7517,10 +8279,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025349</v>
+        <v>607817</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7532,10 +8294,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1721522</v>
+        <v>975236</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7549,7 +8311,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7567,7 +8329,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7582,7 +8344,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7597,7 +8359,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,49 +8368,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>562</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7">
-        <v>571495</v>
+        <v>45440</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
-        <v>1080</v>
+        <v>179</v>
       </c>
       <c r="I29" s="7">
-        <v>669136</v>
+        <v>87450</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
-        <v>1642</v>
+        <v>252</v>
       </c>
       <c r="N29" s="7">
-        <v>1240631</v>
+        <v>132890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,49 +8419,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>2812</v>
+        <v>384</v>
       </c>
       <c r="D30" s="7">
-        <v>2812151</v>
+        <v>236607</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
-        <v>4279</v>
+        <v>701</v>
       </c>
       <c r="I30" s="7">
-        <v>3135283</v>
+        <v>337815</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
-        <v>7091</v>
+        <v>1085</v>
       </c>
       <c r="N30" s="7">
-        <v>5947434</v>
+        <v>574422</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>340</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,63 +8470,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282047</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707312</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>562</v>
+      </c>
+      <c r="D33" s="7">
+        <v>756412</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I33" s="7">
+        <v>628769</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1642</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1385181</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2812</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2701945</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4279</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3030187</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M34" s="7">
+        <v>7091</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5732132</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3374</v>
       </c>
-      <c r="D31" s="7">
-        <v>3383646</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3458357</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5359</v>
       </c>
-      <c r="I31" s="7">
-        <v>3804419</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3658956</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8733</v>
       </c>
-      <c r="N31" s="7">
-        <v>7188065</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7117313</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
